--- a/matlab/logDataProcess/ipb1-30.xlsx
+++ b/matlab/logDataProcess/ipb1-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="101">
   <si>
     <t>reactor</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>dc-he-200-300 (verify the resistance changed)</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>file</t>
   </si>
 </sst>
 </file>
@@ -1173,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D3" sqref="D3:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1184,21 +1190,22 @@
     <col min="1" max="1" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="63.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="7.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="75.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="63.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1209,43 +1216,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1255,44 +1265,47 @@
       <c r="C2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>2</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
       <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
         <v>0.86</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>174</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1302,44 +1315,47 @@
       <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
       <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
         <v>0.86</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>174</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1349,44 +1365,47 @@
       <c r="C4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>6</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>7</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
       <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
         <v>0.86</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>174</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1396,44 +1415,47 @@
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>8</v>
       </c>
-      <c r="F5" s="2">
-        <v>10</v>
-      </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>0.86</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>174</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1443,44 +1465,47 @@
       <c r="C6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>22</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>23</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>0.86</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>180</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1490,44 +1515,47 @@
       <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>11</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>12</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
       <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
         <v>0.86</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>174</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1537,44 +1565,47 @@
       <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>14</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>16</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
       <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
         <v>0.86</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>174</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1584,44 +1615,47 @@
       <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>48</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>51</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
       <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
         <v>0.86</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>180</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="O9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1631,44 +1665,47 @@
       <c r="C10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>58</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>63</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
       <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <v>0.86</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>180</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="O10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1678,44 +1715,47 @@
       <c r="C11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>7</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
       <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
         <v>5</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
       <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
         <v>0.86</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>182</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="O11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1725,44 +1765,47 @@
       <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>8</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>9</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
       <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
         <v>0.86</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>182</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="O12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1772,44 +1815,47 @@
       <c r="C13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>11</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>13</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
       <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
         <v>0.86</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>182</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="O13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1819,44 +1865,47 @@
       <c r="C14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>15</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>17</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
       <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
         <v>0.86</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>182</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="O14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1866,44 +1915,47 @@
       <c r="C15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>4</v>
       </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
       <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
         <v>0.86</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>183</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="O15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -1913,44 +1965,47 @@
       <c r="C16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E16" s="2">
-        <v>21</v>
       </c>
       <c r="F16" s="2">
         <v>21</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
       <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
         <v>0.86</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>182</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="O16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1960,44 +2015,47 @@
       <c r="C17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E17" s="2">
-        <v>22</v>
       </c>
       <c r="F17" s="2">
         <v>22</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
       <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
         <v>0.86</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>182</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -2007,44 +2065,47 @@
       <c r="C18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>2</v>
       </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
       <c r="H18" s="2">
         <v>0</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>1</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <v>0.86</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>184</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="O18" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
@@ -2054,44 +2115,47 @@
       <c r="C19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>3</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>4</v>
       </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>1</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="2">
         <v>0.86</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19" s="2">
         <v>184</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="O19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -2101,44 +2165,47 @@
       <c r="C20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>5</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>9</v>
       </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>1</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
         <v>0.86</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <v>184</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="O20" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -2148,44 +2215,47 @@
       <c r="C21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="2">
-        <v>10</v>
-      </c>
       <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2">
         <v>11</v>
       </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>1</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <v>0.86</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="2">
         <v>184</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="O21" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -2195,44 +2265,47 @@
       <c r="C22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E22" s="2">
-        <v>17</v>
       </c>
       <c r="F22" s="2">
         <v>17</v>
       </c>
       <c r="G22" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H22" s="2">
         <v>4</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="2">
+        <v>4</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
       <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
         <v>0.86</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="2">
         <v>184</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="O22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -2242,44 +2315,47 @@
       <c r="C23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>13</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <v>14</v>
       </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
       <c r="H23" s="2">
         <v>0</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>1</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <v>0.86</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M23" s="2">
+      <c r="N23" s="2">
         <v>185</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="O23" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -2289,44 +2365,47 @@
       <c r="C24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>6</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>8</v>
       </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
       <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
         <v>0.86</v>
       </c>
-      <c r="L24" s="2">
+      <c r="M24" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M24" s="2">
+      <c r="N24" s="2">
         <v>187</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2336,44 +2415,47 @@
       <c r="C25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="2">
-        <v>10</v>
-      </c>
       <c r="F25" s="2">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2">
         <v>11</v>
       </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
       <c r="H25" s="2">
         <v>0</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
       <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
         <v>0.86</v>
       </c>
-      <c r="L25" s="2">
+      <c r="M25" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M25" s="2">
+      <c r="N25" s="2">
         <v>187</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2383,44 +2465,47 @@
       <c r="C26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>12</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>13</v>
       </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
       <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
         <v>0.86</v>
       </c>
-      <c r="L26" s="2">
+      <c r="M26" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="2">
         <v>187</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2430,44 +2515,47 @@
       <c r="C27" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>14</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>16</v>
       </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
       <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
         <v>0.86</v>
       </c>
-      <c r="L27" s="2">
+      <c r="M27" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M27" s="2">
+      <c r="N27" s="2">
         <v>187</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2477,40 +2565,43 @@
       <c r="C28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>30</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>33</v>
       </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
       <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
         <v>0.86</v>
       </c>
-      <c r="L28" s="2">
+      <c r="M28" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M28" s="2">
+      <c r="N28" s="2">
         <v>187</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="O28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="P28" s="2" t="s">
         <v>96</v>
       </c>
     </row>

--- a/matlab/logDataProcess/ipb1-30.xlsx
+++ b/matlab/logDataProcess/ipb1-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="102">
   <si>
     <t>reactor</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>file</t>
+  </si>
+  <si>
+    <t>coreL</t>
   </si>
 </sst>
 </file>
@@ -1179,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D28"/>
+      <selection activeCell="K2" sqref="K2:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1196,16 +1199,17 @@
     <col min="8" max="8" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="43.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="63.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="43.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="63.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1237,25 +1241,28 @@
         <v>53</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1287,25 +1294,28 @@
         <v>52</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
         <v>0.86</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>174</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1337,25 +1347,28 @@
         <v>52</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
         <v>0.86</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>174</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1387,25 +1400,28 @@
         <v>52</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
         <v>0.86</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>174</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1437,25 +1453,28 @@
         <v>52</v>
       </c>
       <c r="K5" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L5" s="2">
         <v>1</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>0.86</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>174</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1487,25 +1506,28 @@
         <v>52</v>
       </c>
       <c r="K6" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L6" s="2">
         <v>1</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>0.86</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>180</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1537,25 +1559,28 @@
         <v>52</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
         <v>0.86</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>174</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1587,25 +1612,28 @@
         <v>52</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
         <v>0.86</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>174</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1637,25 +1665,28 @@
         <v>52</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <v>0.86</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>180</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1687,25 +1718,28 @@
         <v>52</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
         <v>0.86</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>180</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="P10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1737,25 +1771,28 @@
         <v>52</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
         <v>0.86</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>182</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="P11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1787,25 +1824,28 @@
         <v>52</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
         <v>0.86</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>182</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1837,25 +1877,28 @@
         <v>52</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
         <v>0.86</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>182</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1887,25 +1930,28 @@
         <v>52</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
         <v>0.86</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>182</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="P14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1937,25 +1983,28 @@
         <v>52</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
         <v>0.86</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <v>183</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="P15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -1987,25 +2036,28 @@
         <v>52</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
         <v>0.86</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>182</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="P16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -2037,25 +2089,28 @@
         <v>52</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
         <v>0.86</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N17" s="2">
+      <c r="O17" s="2">
         <v>182</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="P17" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -2087,25 +2142,28 @@
         <v>52</v>
       </c>
       <c r="K18" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L18" s="2">
         <v>1</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>0.86</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N18" s="2">
+      <c r="O18" s="2">
         <v>184</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="P18" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
@@ -2137,25 +2195,28 @@
         <v>52</v>
       </c>
       <c r="K19" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L19" s="2">
         <v>1</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <v>0.86</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O19" s="2">
         <v>184</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="P19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -2187,25 +2248,28 @@
         <v>52</v>
       </c>
       <c r="K20" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L20" s="2">
         <v>1</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>0.86</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O20" s="2">
         <v>184</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="P20" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="Q20" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -2237,25 +2301,28 @@
         <v>52</v>
       </c>
       <c r="K21" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L21" s="2">
         <v>1</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>0.86</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
         <v>184</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="P21" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -2287,25 +2354,28 @@
         <v>52</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
         <v>0.86</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
         <v>184</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="P22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -2337,25 +2407,28 @@
         <v>76</v>
       </c>
       <c r="K23" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L23" s="2">
         <v>1</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <v>0.86</v>
       </c>
-      <c r="M23" s="2">
+      <c r="N23" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N23" s="2">
+      <c r="O23" s="2">
         <v>185</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="P23" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -2387,25 +2460,28 @@
         <v>76</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
         <v>0.86</v>
       </c>
-      <c r="M24" s="2">
+      <c r="N24" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N24" s="2">
+      <c r="O24" s="2">
         <v>187</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2437,25 +2513,28 @@
         <v>76</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
         <v>0.86</v>
       </c>
-      <c r="M25" s="2">
+      <c r="N25" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N25" s="2">
+      <c r="O25" s="2">
         <v>187</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2487,25 +2566,28 @@
         <v>76</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
         <v>0.86</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O26" s="2">
         <v>187</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2537,25 +2619,28 @@
         <v>76</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
         <v>0.86</v>
       </c>
-      <c r="M27" s="2">
+      <c r="N27" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N27" s="2">
+      <c r="O27" s="2">
         <v>187</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2587,21 +2672,24 @@
         <v>76</v>
       </c>
       <c r="K28" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
         <v>0.86</v>
       </c>
-      <c r="M28" s="2">
+      <c r="N28" s="2">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N28" s="2">
+      <c r="O28" s="2">
         <v>187</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="P28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="Q28" s="2" t="s">
         <v>96</v>
       </c>
     </row>
